--- a/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 3.xlsx
+++ b/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogwarts299-my.sharepoint.com/personal/hermione_hogwarts299_onmicrosoft_com/Documents/Documents/Learnings/Excel BI Challenges/Excel Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:11_{F4BBB4B0-B7BE-415F-8214-325F4778354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C772C115-A698-430A-9E7D-342727710C41}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:11_{F4BBB4B0-B7BE-415F-8214-325F4778354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C7D034-48EB-493D-8579-89393B545D9C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
